--- a/data/trans_camb/P28B_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P28B_2_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>-9,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,19</t>
+          <t>-9,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,54</t>
+          <t>-12,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,51</t>
+          <t>-12,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,08</t>
+          <t>-13,01</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,81</t>
+          <t>-11,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>-11,04</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-11,3</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,7</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-6,44</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-7,43</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-4,04</t>
+          <t>-11,63</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,01; -0,73</t>
+          <t>-18,05; -1,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,11; -2,64</t>
+          <t>-18,0; -2,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,95; -5,41</t>
+          <t>-21,7; -6,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,18; -0,36</t>
+          <t>-20,93; -4,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,77; -2,55</t>
+          <t>-21,38; -6,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,3; -1,49</t>
+          <t>-19,81; -4,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,54; -1,45</t>
+          <t>-17,3; -5,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 2,09</t>
+          <t>-17,12; -6,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,12; -3,5</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-9,78; -3,26</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-10,74; -4,17</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-7,8; -0,12</t>
+          <t>-17,85; -6,42</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-53,01%</t>
+          <t>-65,41%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-61,54%</t>
+          <t>-64,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-81,65%</t>
+          <t>-85,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-47,19%</t>
+          <t>-64,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-52,46%</t>
+          <t>-67,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-43,06%</t>
+          <t>-57,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-42,81%</t>
+          <t>-64,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-20,91%</t>
+          <t>-66,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-52,73%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-50,71%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-58,47%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-31,83%</t>
+          <t>-68,04%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-78,61; -4,57</t>
+          <t>-89,28; -5,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-81,06; -27,51</t>
+          <t>-84,58; -22,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-92,95; -58,8</t>
+          <t>-95,56; -60,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-70,04; -2,0</t>
+          <t>-83,29; -30,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-72,01; -19,35</t>
+          <t>-82,06; -41,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,32; -12,76</t>
+          <t>-74,89; -29,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-65,68; -11,7</t>
+          <t>-81,02; -36,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,86; 20,58</t>
+          <t>-79,07; -46,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-70,26; -29,43</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-65,34; -27,38</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-72,27; -38,58</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-52,72; -0,09</t>
+          <t>-79,32; -47,36</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,81</t>
+          <t>-9,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,74</t>
+          <t>-9,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>-9,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,96</t>
+          <t>-11,93</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,51</t>
+          <t>-12,97</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-13,62</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,99</t>
+          <t>-10,67</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-10,22</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-11,75</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-7,13</t>
+          <t>-11,65</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 0,87</t>
+          <t>-10,79; 2,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -5,7</t>
+          <t>-15,14; -3,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,94; -6,0</t>
+          <t>-16,11; -5,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,78; -1,64</t>
+          <t>-15,53; -3,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,04; -5,37</t>
+          <t>-17,57; -6,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,3; -7,91</t>
+          <t>-18,56; -7,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,43; -9,97</t>
+          <t>-11,48; -2,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,73; -3,79</t>
+          <t>-14,84; -7,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,73; -3,72</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-12,92; -7,79</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-14,43; -9,39</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-9,81; -4,2</t>
+          <t>-15,53; -8,07</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-24,2%</t>
+          <t>-27,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-60,41%</t>
+          <t>-59,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-66,81%</t>
+          <t>-64,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-39,63%</t>
+          <t>-43,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-46,0%</t>
+          <t>-55,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-53,17%</t>
+          <t>-60,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-62,91%</t>
+          <t>-37,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-36,89%</t>
+          <t>-57,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-37,24%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-56,37%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-64,83%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-39,35%</t>
+          <t>-62,83%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,83; 7,28</t>
+          <t>-55,19; 24,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-73,77; -44,47</t>
+          <t>-76,09; -26,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-78,19; -46,08</t>
+          <t>-79,92; -39,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,96; -10,37</t>
+          <t>-62,12; -14,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,21; -27,16</t>
+          <t>-69,62; -35,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,05; -38,4</t>
+          <t>-73,05; -40,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,92; -48,69</t>
+          <t>-54,45; -17,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,62; -19,46</t>
+          <t>-69,04; -42,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-49,59; -21,78</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-65,72; -46,55</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-72,61; -55,08</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-50,57; -24,15</t>
+          <t>-73,24; -48,74</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-10,36</t>
+          <t>-9,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-11,09</t>
+          <t>-10,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-12,18</t>
+          <t>-10,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,64</t>
+          <t>-10,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-10,22</t>
+          <t>-11,44</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,68</t>
+          <t>-13,06</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-12,31</t>
+          <t>-10,07</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-10,85</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-10,27</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-10,82</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-12,17</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>-4,42</t>
+          <t>-11,95</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,08; -6,32</t>
+          <t>-15,76; -2,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,34; -6,4</t>
+          <t>-16,31; -4,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,54; -7,64</t>
+          <t>-16,76; -4,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 0,17</t>
+          <t>-17,43; -4,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,54; -5,41</t>
+          <t>-17,93; -5,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,54; -5,93</t>
+          <t>-19,28; -8,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-16,85; -7,69</t>
+          <t>-14,16; -5,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 4,33</t>
+          <t>-15,25; -7,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,28; -6,96</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-13,98; -7,23</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-15,48; -9,17</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-8,68; 0,02</t>
+          <t>-16,36; -8,22</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-58,0%</t>
+          <t>-57,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-62,06%</t>
+          <t>-62,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-68,16%</t>
+          <t>-64,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-37,18%</t>
+          <t>-49,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-49,67%</t>
+          <t>-53,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-51,91%</t>
+          <t>-61,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-59,84%</t>
+          <t>-52,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-12,73%</t>
+          <t>-57,1%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-53,53%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-56,39%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-63,43%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>-23,01%</t>
+          <t>-62,89%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-73,05; -39,1</t>
+          <t>-76,04; -21,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-75,18; -37,65</t>
+          <t>-77,8; -33,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-80,67; -45,31</t>
+          <t>-79,65; -33,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,22; 1,98</t>
+          <t>-67,03; -25,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,58; -29,46</t>
+          <t>-68,67; -33,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,44; -31,87</t>
+          <t>-74,34; -44,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-71,73; -42,76</t>
+          <t>-65,06; -35,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,98; 23,69</t>
+          <t>-68,37; -41,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-64,13; -40,4</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-66,07; -42,34</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-73,1; -50,62</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>-41,87; 0,02</t>
+          <t>-73,25; -47,69</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,16</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,23</t>
+          <t>-8,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-10,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,48</t>
+          <t>-7,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-9,4</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-10,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-11,45</t>
+          <t>-6,21</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>-7,65</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,82</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-9,65</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-10,99</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-6,23</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,81; -3,54</t>
+          <t>-8,74; -1,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,54; -7,09</t>
+          <t>-11,62; -3,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,7; -8,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,15; -3,52</t>
+          <t>-11,13; -3,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,98; -6,77</t>
+          <t>-11,31; -1,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,81; -7,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,87; -8,99</t>
+          <t>-8,78; -3,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -2,79</t>
+          <t>-10,47; -4,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,73; -5,79</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-11,31; -7,81</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-12,57; -9,17</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-8,13; -4,22</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-40,99%</t>
+          <t>-34,58%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-61,43%</t>
+          <t>-56,2%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-69,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-43,09%</t>
+          <t>-39,88%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-48,26%</t>
+          <t>-36,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-51,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-58,8%</t>
+          <t>-37,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-30,2%</t>
+          <t>-46,31%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-45,18%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-55,8%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-63,49%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-36,01%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,283 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-54,04; -25,7</t>
+          <t>-52,84; -8,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,58; -50,25</t>
+          <t>-72,98; -24,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-77,42; -59,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,98; -25,09</t>
+          <t>-55,32; -21,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-57,7; -37,08</t>
+          <t>-55,99; -8,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-60,15; -42,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-65,95; -49,0</t>
+          <t>-50,19; -22,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-41,9; -15,43</t>
+          <t>-59,84; -27,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-53,26; -35,52</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-61,81; -48,4</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-68,93; -56,1</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-44,46; -25,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-6,02</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-8,92</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-10,21</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-8,67</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-9,98</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-11,13</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-7,38</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-9,47</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-10,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-8,6; -3,31</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-11,27; -6,27</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-12,7; -7,86</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-11,45; -5,86</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-12,36; -7,48</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-13,62; -8,49</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-9,15; -5,44</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-11,22; -7,79</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-12,51; -8,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-40,09%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-59,4%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-67,94%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-44,52%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-51,26%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-57,18%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-42,64%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-54,75%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-61,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-52,36; -24,54</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-68,62; -45,53</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-76,44; -56,09</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-54,08; -31,58</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-59,32; -41,55</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-64,98; -46,4</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-50,06; -33,14</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-61,36; -47,5</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-67,73; -54,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
